--- a/ValueSet-well-being-satisfaction.xlsx
+++ b/ValueSet-well-being-satisfaction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-03T13:53:40+00:00</t>
+    <t>2025-04-11T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-well-being-satisfaction.xlsx
+++ b/ValueSet-well-being-satisfaction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T16:20:36+00:00</t>
+    <t>2025-04-11T19:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-well-being-satisfaction.xlsx
+++ b/ValueSet-well-being-satisfaction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T19:45:36+00:00</t>
+    <t>2025-04-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-well-being-satisfaction.xlsx
+++ b/ValueSet-well-being-satisfaction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:15:00+00:00</t>
+    <t>2025-04-17T22:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-well-being-satisfaction.xlsx
+++ b/ValueSet-well-being-satisfaction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-17T22:39:33+00:00</t>
+    <t>2025-04-21T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-well-being-satisfaction.xlsx
+++ b/ValueSet-well-being-satisfaction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-21T21:10:00+00:00</t>
+    <t>2025-09-02T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
